--- a/data/trans_orig/P68-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P68-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69C1188-B2E5-4826-A7F4-D8209AB22AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F51053-94E0-440A-89D9-3B3018AA9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5738DCF-95A4-4CA3-9B9B-7AF64F8847EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6C804EE-1729-4566-B784-3B8EC824C239}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>25,65%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>74,35%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>19,88%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,1090 +197,1135 @@
     <t>26,45%</t>
   </si>
   <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>21,04%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>78,96%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>25,42%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>20,7%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>26,04%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>74,58%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>79,3%</t>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>80,18%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0814BE1-6AD0-4CA5-80F2-908C7F97E357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829E348F-D991-4E38-A322-5EA283113402}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2472,7 +2517,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2532,13 @@
         <v>417896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>281</v>
@@ -2502,13 +2547,13 @@
         <v>299051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>717</v>
@@ -2517,13 +2562,13 @@
         <v>716947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2636,13 @@
         <v>472305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -2606,28 +2651,28 @@
         <v>220121</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>665</v>
       </c>
       <c r="N19" s="7">
-        <v>692426</v>
+        <v>692427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2687,10 @@
         <v>1421130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>114</v>
@@ -2720,7 +2765,7 @@
         <v>2792</v>
       </c>
       <c r="N21" s="7">
-        <v>2914898</v>
+        <v>2914899</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2755,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29557032-F7D0-4E5B-9E8D-7BEFFF857903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966ED214-FB20-4D18-B218-B0946354C659}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2963,10 +3008,10 @@
         <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3079,13 @@
         <v>55507</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3049,13 +3094,13 @@
         <v>27900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3064,13 +3109,13 @@
         <v>83407</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3130,13 @@
         <v>161697</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>102</v>
@@ -3100,13 +3145,13 @@
         <v>108189</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>253</v>
@@ -3115,13 +3160,13 @@
         <v>269886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3234,13 @@
         <v>93909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3204,13 +3249,13 @@
         <v>63498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -3219,13 +3264,13 @@
         <v>157408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3285,13 @@
         <v>314782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>188</v>
@@ -3255,13 +3300,13 @@
         <v>208098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>476</v>
@@ -3270,13 +3315,13 @@
         <v>522879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3389,13 @@
         <v>79557</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3359,13 +3404,13 @@
         <v>52979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3374,13 +3419,13 @@
         <v>132536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3440,13 @@
         <v>242832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -3410,13 +3455,13 @@
         <v>161363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -3425,13 +3470,13 @@
         <v>404195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3544,13 @@
         <v>80342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3514,13 +3559,13 @@
         <v>64096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -3529,13 +3574,13 @@
         <v>144438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3595,13 @@
         <v>338346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>229</v>
@@ -3565,13 +3610,13 @@
         <v>237407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>553</v>
@@ -3580,13 +3625,13 @@
         <v>575753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3699,13 @@
         <v>331452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -3669,13 +3714,13 @@
         <v>215828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>516</v>
@@ -3684,13 +3729,13 @@
         <v>547279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3750,13 @@
         <v>1087253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>678</v>
@@ -3720,13 +3765,13 @@
         <v>732888</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1692</v>
@@ -3735,13 +3780,13 @@
         <v>1820141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F02005-DFAC-4BAE-A711-C3D0D767D271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83250E7B-B0CD-4066-89BD-8A457DD3A55A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3835,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3942,13 +3987,13 @@
         <v>8049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3957,13 +4002,13 @@
         <v>6130</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3972,13 +4017,13 @@
         <v>14179</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4038,13 @@
         <v>34864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4008,13 +4053,13 @@
         <v>23761</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -4023,13 +4068,13 @@
         <v>58625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4142,13 @@
         <v>46624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4112,13 +4157,13 @@
         <v>23785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4127,13 +4172,13 @@
         <v>70409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4193,13 @@
         <v>151557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -4163,13 +4208,13 @@
         <v>112647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>263</v>
@@ -4178,13 +4223,13 @@
         <v>264205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4297,13 @@
         <v>96984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4267,13 +4312,13 @@
         <v>55552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -4282,13 +4327,13 @@
         <v>152535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,10 +4351,10 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -4318,13 +4363,13 @@
         <v>218219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>497</v>
@@ -4333,13 +4378,13 @@
         <v>529576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4452,13 @@
         <v>109935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4422,13 +4467,13 @@
         <v>64747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>167</v>
@@ -4437,13 +4482,13 @@
         <v>174682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4503,13 @@
         <v>251723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -4473,13 +4518,13 @@
         <v>204869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>422</v>
@@ -4488,13 +4533,13 @@
         <v>456592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4607,13 @@
         <v>88410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -4577,13 +4622,13 @@
         <v>66083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -4592,13 +4637,13 @@
         <v>154493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4658,13 @@
         <v>310835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4628,13 +4673,13 @@
         <v>256261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>550</v>
@@ -4643,13 +4688,13 @@
         <v>567096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4762,13 @@
         <v>350001</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -4732,13 +4777,13 @@
         <v>216298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>529</v>
@@ -4747,13 +4792,13 @@
         <v>566299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4813,13 @@
         <v>1060336</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -4783,13 +4828,13 @@
         <v>815756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>1791</v>
@@ -4798,13 +4843,13 @@
         <v>1876092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA25C1B7-C632-459E-B390-CC986E82A687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B0109B-3766-493A-B209-1DAFD73E21BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4898,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5005,13 +5050,13 @@
         <v>14213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5020,13 +5065,13 @@
         <v>11291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5035,13 +5080,13 @@
         <v>25503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5101,13 @@
         <v>37826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5071,13 +5116,13 @@
         <v>33447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -5086,13 +5131,13 @@
         <v>71275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5205,13 @@
         <v>60313</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -5175,13 +5220,13 @@
         <v>47994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -5190,13 +5235,13 @@
         <v>108306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5256,13 @@
         <v>230239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>269</v>
@@ -5226,13 +5271,13 @@
         <v>181788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -5241,13 +5286,13 @@
         <v>412028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5360,13 @@
         <v>116450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -5330,13 +5375,13 @@
         <v>109232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -5345,13 +5390,13 @@
         <v>225682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5411,13 @@
         <v>512052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -5381,13 +5426,13 @@
         <v>326755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>857</v>
@@ -5396,13 +5441,13 @@
         <v>838807</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5515,13 @@
         <v>58037</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5485,13 +5530,13 @@
         <v>79778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5500,13 +5545,13 @@
         <v>137816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5566,13 @@
         <v>290246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -5536,13 +5581,13 @@
         <v>235662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>586</v>
@@ -5551,13 +5596,13 @@
         <v>525908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5670,13 @@
         <v>104006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5640,13 +5685,13 @@
         <v>112916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -5655,13 +5700,13 @@
         <v>216921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5721,13 @@
         <v>388883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -5691,13 +5736,13 @@
         <v>345415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>826</v>
@@ -5706,13 +5751,13 @@
         <v>734299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5825,13 @@
         <v>353017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -5795,13 +5840,13 @@
         <v>361211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>812</v>
@@ -5810,13 +5855,13 @@
         <v>714228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5876,13 @@
         <v>1459248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -5846,13 +5891,13 @@
         <v>1123068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>2860</v>
@@ -5861,13 +5906,13 @@
         <v>2582316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P68-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P68-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F51053-94E0-440A-89D9-3B3018AA9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8102DE8A-537C-4D7A-A4C0-D14C30079681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6C804EE-1729-4566-B784-3B8EC824C239}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0577243C-1A4B-468B-B280-5BA50C3BD4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>25,65%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,922 +107,910 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>74,35%</t>
   </si>
   <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>15,63%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>78,73%</t>
   </si>
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
@@ -1193,9 +1181,6 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
     <t>20,25%</t>
   </si>
   <si>
@@ -1215,9 +1200,6 @@
   </si>
   <si>
     <t>87,41%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
   </si>
   <si>
     <t>67,16%</t>
@@ -1737,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829E348F-D991-4E38-A322-5EA283113402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A336C956-439C-420B-8E6B-DF1D5BCE7436}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,13 +2338,13 @@
         <v>156476</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,10 +2362,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -2392,13 +2374,13 @@
         <v>166580</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
@@ -2407,13 +2389,13 @@
         <v>464056</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2463,13 @@
         <v>137049</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -2496,13 +2478,13 @@
         <v>88551</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>223</v>
@@ -2511,13 +2493,13 @@
         <v>225600</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2514,13 @@
         <v>417896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>281</v>
@@ -2547,13 +2529,13 @@
         <v>299051</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>717</v>
@@ -2562,13 +2544,13 @@
         <v>716947</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2618,13 @@
         <v>472305</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -2651,28 +2633,28 @@
         <v>220121</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>665</v>
       </c>
       <c r="N19" s="7">
-        <v>692427</v>
+        <v>692426</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,10 +2669,10 @@
         <v>1421130</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>114</v>
@@ -2765,7 +2747,7 @@
         <v>2792</v>
       </c>
       <c r="N21" s="7">
-        <v>2914899</v>
+        <v>2914898</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2800,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966ED214-FB20-4D18-B218-B0946354C659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33444644-CB3D-4DD8-A82C-6718A279CCA8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,13 +3386,13 @@
         <v>52979</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3419,13 +3401,13 @@
         <v>132536</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3422,13 @@
         <v>242832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -3455,13 +3437,13 @@
         <v>161363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -3470,13 +3452,13 @@
         <v>404195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3544,13 +3526,13 @@
         <v>80342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3559,13 +3541,13 @@
         <v>64096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -3574,13 +3556,13 @@
         <v>144438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3577,13 @@
         <v>338346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>229</v>
@@ -3610,13 +3592,13 @@
         <v>237407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>553</v>
@@ -3625,13 +3607,13 @@
         <v>575753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3681,13 @@
         <v>331452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -3714,13 +3696,13 @@
         <v>215828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>516</v>
@@ -3729,13 +3711,13 @@
         <v>547279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3732,13 @@
         <v>1087253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>678</v>
@@ -3765,13 +3747,13 @@
         <v>732888</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>1692</v>
@@ -3780,13 +3762,13 @@
         <v>1820141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83250E7B-B0CD-4066-89BD-8A457DD3A55A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B257399-EFC6-4E95-B9A5-8DD757840991}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +3969,13 @@
         <v>8049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4002,13 +3984,13 @@
         <v>6130</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4017,13 +3999,13 @@
         <v>14179</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4020,13 @@
         <v>34864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4053,13 +4035,13 @@
         <v>23761</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -4068,13 +4050,13 @@
         <v>58625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4124,13 @@
         <v>46624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4157,13 +4139,13 @@
         <v>23785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4172,13 +4154,13 @@
         <v>70409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4175,13 @@
         <v>151557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -4208,13 +4190,13 @@
         <v>112647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>263</v>
@@ -4223,13 +4205,13 @@
         <v>264205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4279,13 @@
         <v>96984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4312,13 +4294,13 @@
         <v>55552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -4327,13 +4309,13 @@
         <v>152535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,10 +4333,10 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -4363,13 +4345,13 @@
         <v>218219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>497</v>
@@ -4378,13 +4360,13 @@
         <v>529576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4434,13 @@
         <v>109935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4467,13 +4449,13 @@
         <v>64747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>167</v>
@@ -4482,13 +4464,13 @@
         <v>174682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4485,13 @@
         <v>251723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -4518,13 +4500,13 @@
         <v>204869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>422</v>
@@ -4533,13 +4515,13 @@
         <v>456592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4607,13 +4589,13 @@
         <v>88410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -4625,10 +4607,10 @@
         <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -4637,13 +4619,13 @@
         <v>154493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4640,13 @@
         <v>310835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4676,10 +4658,10 @@
         <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>550</v>
@@ -4688,13 +4670,13 @@
         <v>567096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4744,13 @@
         <v>350001</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -4777,13 +4759,13 @@
         <v>216298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>529</v>
@@ -4792,13 +4774,13 @@
         <v>566299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4795,13 @@
         <v>1060336</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -4828,13 +4810,13 @@
         <v>815756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>1791</v>
@@ -4843,13 +4825,13 @@
         <v>1876092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B0109B-3766-493A-B209-1DAFD73E21BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADAE6BB-28B9-46A7-B48B-CCF5FE3625CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5032,13 @@
         <v>14213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5065,13 +5047,13 @@
         <v>11291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5080,13 +5062,13 @@
         <v>25503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5083,13 @@
         <v>37826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5116,13 +5098,13 @@
         <v>33447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -5131,13 +5113,13 @@
         <v>71275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5187,13 @@
         <v>60313</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -5220,13 +5202,13 @@
         <v>47994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -5235,13 +5217,13 @@
         <v>108306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5238,13 @@
         <v>230239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>269</v>
@@ -5271,13 +5253,13 @@
         <v>181788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -5286,13 +5268,13 @@
         <v>412028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5342,13 @@
         <v>116450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -5375,13 +5357,13 @@
         <v>109232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -5390,13 +5372,13 @@
         <v>225682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5393,13 @@
         <v>512052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -5426,13 +5408,13 @@
         <v>326755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>857</v>
@@ -5441,13 +5423,13 @@
         <v>838807</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5497,13 @@
         <v>58037</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5530,13 +5512,13 @@
         <v>79778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5545,13 +5527,13 @@
         <v>137816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5548,13 @@
         <v>290246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -5581,13 +5563,13 @@
         <v>235662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>586</v>
@@ -5596,13 +5578,13 @@
         <v>525908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,13 +5652,13 @@
         <v>104006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5685,13 +5667,13 @@
         <v>112916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -5700,13 +5682,13 @@
         <v>216921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5703,13 @@
         <v>388883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -5736,13 +5718,13 @@
         <v>345415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>826</v>
@@ -5751,10 +5733,10 @@
         <v>734299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>44</v>
@@ -5825,13 +5807,13 @@
         <v>353017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -5840,13 +5822,13 @@
         <v>361211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>812</v>
@@ -5855,13 +5837,13 @@
         <v>714228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5858,13 @@
         <v>1459248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -5891,13 +5873,13 @@
         <v>1123068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>2860</v>
@@ -5906,13 +5888,13 @@
         <v>2582316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P68-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P68-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8102DE8A-537C-4D7A-A4C0-D14C30079681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A084D0-C870-4848-B2A0-A10EA6B808A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0577243C-1A4B-468B-B280-5BA50C3BD4C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{803770EC-DACB-499F-AB3A-FE7CA5ADB72A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="414">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>25,65%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>74,35%</t>
   </si>
   <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,574 +140,565 @@
     <t>19,88%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>75,28%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>83,95%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>76,94%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
@@ -716,598 +707,580 @@
     <t>18,76%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>74,24%</t>
+    <t>74,1%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>75,99%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>25,42%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>20,7%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>26,04%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>74,58%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>79,3%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>80,18%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A336C956-439C-420B-8E6B-DF1D5BCE7436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680D9E88-A319-4B8E-8D96-D1FF3D628433}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,13 +2311,13 @@
         <v>156476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,10 +2335,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -2374,13 +2347,13 @@
         <v>166580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
@@ -2389,13 +2362,13 @@
         <v>464056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2436,13 @@
         <v>137049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -2478,13 +2451,13 @@
         <v>88551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>223</v>
@@ -2493,13 +2466,13 @@
         <v>225600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2487,13 @@
         <v>417896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>281</v>
@@ -2529,13 +2502,13 @@
         <v>299051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>717</v>
@@ -2544,10 +2517,10 @@
         <v>716947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2782,7 +2755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33444644-CB3D-4DD8-A82C-6718A279CCA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8326707-2DE9-48F9-83A1-F019AA547EEB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,10 +2963,10 @@
         <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3034,13 @@
         <v>55507</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3076,13 +3049,13 @@
         <v>27900</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3091,13 +3064,13 @@
         <v>83407</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3085,13 @@
         <v>161697</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>102</v>
@@ -3127,13 +3100,13 @@
         <v>108189</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>253</v>
@@ -3142,13 +3115,13 @@
         <v>269886</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3189,13 @@
         <v>93909</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3231,13 +3204,13 @@
         <v>63498</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -3246,13 +3219,13 @@
         <v>157408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3240,13 @@
         <v>314782</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>188</v>
@@ -3282,13 +3255,13 @@
         <v>208098</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>476</v>
@@ -3297,13 +3270,13 @@
         <v>522879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3344,13 @@
         <v>79557</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3386,13 +3359,13 @@
         <v>52979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3401,13 +3374,13 @@
         <v>132536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3395,13 @@
         <v>242832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -3437,13 +3410,13 @@
         <v>161363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -3452,13 +3425,13 @@
         <v>404195</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3499,13 @@
         <v>80342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3541,13 +3514,13 @@
         <v>64096</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -3556,10 +3529,10 @@
         <v>144438</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>197</v>
@@ -3577,10 +3550,10 @@
         <v>338346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>199</v>
@@ -3613,7 +3586,7 @@
         <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3654,13 @@
         <v>331452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -3696,13 +3669,13 @@
         <v>215828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>516</v>
@@ -3711,13 +3684,13 @@
         <v>547279</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3705,13 @@
         <v>1087253</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>678</v>
@@ -3747,13 +3720,13 @@
         <v>732888</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>1692</v>
@@ -3762,13 +3735,13 @@
         <v>1820141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B257399-EFC6-4E95-B9A5-8DD757840991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FB564-17C9-4429-931D-F83BBC17017F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3942,13 @@
         <v>8049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3984,13 +3957,13 @@
         <v>6130</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3999,13 +3972,13 @@
         <v>14179</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +3993,13 @@
         <v>34864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4035,13 +4008,13 @@
         <v>23761</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -4050,13 +4023,13 @@
         <v>58625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4097,13 @@
         <v>46624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4139,13 +4112,13 @@
         <v>23785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4154,13 +4127,13 @@
         <v>70409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4148,13 @@
         <v>151557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -4190,13 +4163,13 @@
         <v>112647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>263</v>
@@ -4205,13 +4178,13 @@
         <v>264205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,10 +4255,10 @@
         <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4294,13 +4267,13 @@
         <v>55552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -4309,13 +4282,13 @@
         <v>152535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +4306,10 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -4345,13 +4318,13 @@
         <v>218219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>497</v>
@@ -4360,13 +4333,13 @@
         <v>529576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4407,13 @@
         <v>109935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4449,13 +4422,13 @@
         <v>64747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>167</v>
@@ -4464,13 +4437,13 @@
         <v>174682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4458,13 @@
         <v>251723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -4500,13 +4473,13 @@
         <v>204869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>422</v>
@@ -4515,13 +4488,13 @@
         <v>456592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4589,13 +4562,13 @@
         <v>88410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -4604,13 +4577,13 @@
         <v>66083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -4619,13 +4592,13 @@
         <v>154493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4613,13 @@
         <v>310835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -4655,13 +4628,13 @@
         <v>256261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>550</v>
@@ -4670,13 +4643,13 @@
         <v>567096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4717,13 @@
         <v>350001</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -4759,13 +4732,13 @@
         <v>216298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>529</v>
@@ -4774,13 +4747,13 @@
         <v>566299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4768,13 @@
         <v>1060336</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -4810,13 +4783,13 @@
         <v>815756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>1791</v>
@@ -4825,13 +4798,13 @@
         <v>1876092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADAE6BB-28B9-46A7-B48B-CCF5FE3625CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF025DEA-EDBA-4AAE-8EDF-39D3CC4BD9C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,13 +5005,13 @@
         <v>14213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5047,13 +5020,13 @@
         <v>11291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5062,13 +5035,13 @@
         <v>25503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5056,13 @@
         <v>37826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5098,13 +5071,13 @@
         <v>33447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -5113,13 +5086,13 @@
         <v>71275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5160,13 @@
         <v>60313</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -5202,13 +5175,13 @@
         <v>47994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -5217,13 +5190,13 @@
         <v>108306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5211,13 @@
         <v>230239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>269</v>
@@ -5253,13 +5226,13 @@
         <v>181788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -5268,13 +5241,13 @@
         <v>412028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5315,13 @@
         <v>116450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -5357,13 +5330,13 @@
         <v>109232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -5372,13 +5345,13 @@
         <v>225682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5366,13 @@
         <v>512052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -5408,13 +5381,13 @@
         <v>326755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>857</v>
@@ -5423,13 +5396,13 @@
         <v>838807</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5470,13 @@
         <v>58037</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5512,13 +5485,13 @@
         <v>79778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5527,13 +5500,13 @@
         <v>137816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5521,13 @@
         <v>290246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -5563,13 +5536,13 @@
         <v>235662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>586</v>
@@ -5578,13 +5551,13 @@
         <v>525908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5625,13 @@
         <v>104006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5667,13 +5640,13 @@
         <v>112916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -5682,13 +5655,13 @@
         <v>216921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5676,13 @@
         <v>388883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -5718,13 +5691,13 @@
         <v>345415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>826</v>
@@ -5733,13 +5706,13 @@
         <v>734299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5780,13 @@
         <v>353017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -5822,13 +5795,13 @@
         <v>361211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>812</v>
@@ -5837,13 +5810,13 @@
         <v>714228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5831,13 @@
         <v>1459248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -5873,13 +5846,13 @@
         <v>1123068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>2860</v>
@@ -5888,13 +5861,13 @@
         <v>2582316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P68-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P68-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A084D0-C870-4848-B2A0-A10EA6B808A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4345B88D-DA40-4D04-A9F0-B1E279EA0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{803770EC-DACB-499F-AB3A-FE7CA5ADB72A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47341DDE-1EC0-4F7C-8562-05CED7E0FC09}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -68,285 +68,240 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
     <t>78,91%</t>
   </si>
   <si>
@@ -410,528 +365,435 @@
     <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>70,8%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>79,5%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
     <t>74,46%</t>
   </si>
   <si>
@@ -1001,286 +863,244 @@
     <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
 </sst>
 </file>
@@ -1692,8 +1512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680D9E88-A319-4B8E-8D96-D1FF3D628433}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA142C92-4840-46EE-8223-D53715A4DF84}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1810,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1825,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1840,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N4" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1861,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="D5" s="7">
-        <v>40767</v>
+        <v>299818</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1876,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I5" s="7">
-        <v>17556</v>
+        <v>122406</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1891,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>405</v>
       </c>
       <c r="N5" s="7">
-        <v>58324</v>
+        <v>422224</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1912,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="D6" s="7">
-        <v>55838</v>
+        <v>379149</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1927,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I6" s="7">
-        <v>23612</v>
+        <v>154647</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1942,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="N6" s="7">
-        <v>79450</v>
+        <v>533796</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1965,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>64260</v>
+        <v>145981</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1980,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1995,10 +1815,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N7" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2016,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="D8" s="7">
-        <v>259051</v>
+        <v>405940</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2031,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I8" s="7">
-        <v>104849</v>
+        <v>213305</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2046,10 +1866,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>351</v>
+        <v>563</v>
       </c>
       <c r="N8" s="7">
-        <v>363900</v>
+        <v>619246</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2067,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>314</v>
+        <v>501</v>
       </c>
       <c r="D9" s="7">
-        <v>323311</v>
+        <v>551921</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2082,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I9" s="7">
-        <v>131035</v>
+        <v>266102</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2097,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>439</v>
+        <v>749</v>
       </c>
       <c r="N9" s="7">
-        <v>454346</v>
+        <v>818023</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2120,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2135,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2150,10 +1970,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>198777</v>
+        <v>156476</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2171,10 +1991,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>405940</v>
+        <v>297476</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2186,10 +2006,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="I11" s="7">
-        <v>213305</v>
+        <v>166580</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2201,10 +2021,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>563</v>
+        <v>442</v>
       </c>
       <c r="N11" s="7">
-        <v>619246</v>
+        <v>464056</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2222,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>376</v>
       </c>
       <c r="D12" s="7">
-        <v>551921</v>
+        <v>407420</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2237,10 +2057,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7">
-        <v>266102</v>
+        <v>213113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>749</v>
+        <v>589</v>
       </c>
       <c r="N12" s="7">
-        <v>818023</v>
+        <v>620532</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2275,49 +2095,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N13" s="7">
-        <v>156476</v>
+        <v>225600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,49 +2146,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>276</v>
+        <v>436</v>
       </c>
       <c r="D14" s="7">
-        <v>297476</v>
+        <v>417896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7">
-        <v>166580</v>
+        <v>299051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>442</v>
+        <v>717</v>
       </c>
       <c r="N14" s="7">
-        <v>464056</v>
+        <v>716947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>574</v>
       </c>
       <c r="D15" s="7">
-        <v>407420</v>
+        <v>554945</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2392,10 +2212,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="I15" s="7">
-        <v>213113</v>
+        <v>387602</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2227,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>589</v>
+        <v>940</v>
       </c>
       <c r="N15" s="7">
-        <v>620532</v>
+        <v>942547</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2424,55 +2244,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D16" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N16" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,49 +2301,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>436</v>
+        <v>1364</v>
       </c>
       <c r="D17" s="7">
-        <v>417896</v>
+        <v>1421130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>763</v>
       </c>
       <c r="I17" s="7">
-        <v>299051</v>
+        <v>801343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>717</v>
+        <v>2127</v>
       </c>
       <c r="N17" s="7">
-        <v>716947</v>
+        <v>2222472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>574</v>
+        <v>1814</v>
       </c>
       <c r="D18" s="7">
-        <v>554945</v>
+        <v>1893435</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2547,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>366</v>
+        <v>978</v>
       </c>
       <c r="I18" s="7">
-        <v>387602</v>
+        <v>1021464</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2562,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>940</v>
+        <v>2792</v>
       </c>
       <c r="N18" s="7">
-        <v>942547</v>
+        <v>2914899</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2578,171 +2398,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>450</v>
-      </c>
-      <c r="D19" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>215</v>
-      </c>
-      <c r="I19" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>665</v>
-      </c>
-      <c r="N19" s="7">
-        <v>692426</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1421130</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>763</v>
-      </c>
-      <c r="I20" s="7">
-        <v>801343</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2127</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2222472</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1814</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1893435</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>978</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1021464</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2792</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2914898</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2755,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8326707-2DE9-48F9-83A1-F019AA547EEB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8025024-8C4B-4458-B679-1C7FD9D24C07}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2772,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2873,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>22137</v>
+        <v>77643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N4" s="7">
-        <v>29491</v>
+        <v>112898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>29596</v>
+        <v>191294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I5" s="7">
-        <v>17832</v>
+        <v>126021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="N5" s="7">
-        <v>47428</v>
+        <v>317314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="D6" s="7">
-        <v>51733</v>
+        <v>268937</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2990,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I6" s="7">
-        <v>25186</v>
+        <v>161275</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3005,10 +2669,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="N6" s="7">
-        <v>76919</v>
+        <v>430212</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3028,49 +2692,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7">
-        <v>55507</v>
+        <v>93909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>27900</v>
+        <v>63498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="N7" s="7">
-        <v>83407</v>
+        <v>157408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="D8" s="7">
-        <v>161697</v>
+        <v>314782</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="I8" s="7">
-        <v>108189</v>
+        <v>208098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>253</v>
+        <v>476</v>
       </c>
       <c r="N8" s="7">
-        <v>269886</v>
+        <v>522879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="D9" s="7">
-        <v>217204</v>
+        <v>408691</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3145,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="I9" s="7">
-        <v>136089</v>
+        <v>271596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3160,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>334</v>
+        <v>622</v>
       </c>
       <c r="N9" s="7">
-        <v>353293</v>
+        <v>680287</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3183,49 +2847,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>93909</v>
+        <v>79557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>63498</v>
+        <v>52979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>157408</v>
+        <v>132536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,49 +2898,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>314782</v>
+        <v>242832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="I11" s="7">
-        <v>208098</v>
+        <v>161363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>476</v>
+        <v>363</v>
       </c>
       <c r="N11" s="7">
-        <v>522879</v>
+        <v>404195</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="D12" s="7">
-        <v>408691</v>
+        <v>322389</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3300,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="I12" s="7">
-        <v>271596</v>
+        <v>214342</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3315,10 +2979,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="N12" s="7">
-        <v>680287</v>
+        <v>536731</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3338,49 +3002,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>79557</v>
+        <v>80342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="N13" s="7">
-        <v>132536</v>
+        <v>144438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3053,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="D14" s="7">
-        <v>242832</v>
+        <v>338346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>161363</v>
+        <v>237407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>363</v>
+        <v>553</v>
       </c>
       <c r="N14" s="7">
-        <v>404195</v>
+        <v>575753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="D15" s="7">
-        <v>322389</v>
+        <v>418688</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3455,10 +3119,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="I15" s="7">
-        <v>214342</v>
+        <v>301503</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3470,10 +3134,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>484</v>
+        <v>692</v>
       </c>
       <c r="N15" s="7">
-        <v>536731</v>
+        <v>720191</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3487,55 +3151,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="D16" s="7">
-        <v>80342</v>
+        <v>331452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7">
-        <v>64096</v>
+        <v>215828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>139</v>
+        <v>516</v>
       </c>
       <c r="N16" s="7">
-        <v>144438</v>
+        <v>547280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +3208,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>324</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="7">
-        <v>338346</v>
+        <v>1087253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>229</v>
+        <v>678</v>
       </c>
       <c r="I17" s="7">
-        <v>237407</v>
+        <v>732888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
-        <v>553</v>
+        <v>1692</v>
       </c>
       <c r="N17" s="7">
-        <v>575753</v>
+        <v>1820141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,10 +3259,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>404</v>
+        <v>1332</v>
       </c>
       <c r="D18" s="7">
-        <v>418688</v>
+        <v>1418705</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3610,10 +3274,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>288</v>
+        <v>876</v>
       </c>
       <c r="I18" s="7">
-        <v>301503</v>
+        <v>948716</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3625,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>692</v>
+        <v>2208</v>
       </c>
       <c r="N18" s="7">
-        <v>720191</v>
+        <v>2367421</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3641,171 +3305,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>318</v>
-      </c>
-      <c r="D19" s="7">
-        <v>331452</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="7">
-        <v>198</v>
-      </c>
-      <c r="I19" s="7">
-        <v>215828</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>516</v>
-      </c>
-      <c r="N19" s="7">
-        <v>547279</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1014</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1087253</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="7">
-        <v>678</v>
-      </c>
-      <c r="I20" s="7">
-        <v>732888</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1692</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1820141</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1332</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1418705</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>876</v>
-      </c>
-      <c r="I21" s="7">
-        <v>948716</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2208</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2367420</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3818,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FB564-17C9-4429-931D-F83BBC17017F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FF8C16-5A9C-4ABB-BE3B-028AF0D791EA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3835,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3936,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7">
-        <v>34864</v>
+        <v>186422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I5" s="7">
-        <v>23761</v>
+        <v>136408</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>322</v>
       </c>
       <c r="N5" s="7">
-        <v>58625</v>
+        <v>322830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="D6" s="7">
-        <v>42913</v>
+        <v>241095</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4053,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="I6" s="7">
-        <v>29891</v>
+        <v>166323</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="N6" s="7">
-        <v>72804</v>
+        <v>407418</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4091,49 +3599,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N7" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,49 +3650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>151557</v>
+        <v>311356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I8" s="7">
-        <v>112647</v>
+        <v>218219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
-        <v>263</v>
+        <v>497</v>
       </c>
       <c r="N8" s="7">
-        <v>264205</v>
+        <v>529576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="D9" s="7">
-        <v>198181</v>
+        <v>408340</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4208,10 +3716,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="I9" s="7">
-        <v>136432</v>
+        <v>273771</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4223,10 +3731,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>334614</v>
+        <v>682111</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4246,49 +3754,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,49 +3805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>311356</v>
+        <v>251723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I11" s="7">
-        <v>218219</v>
+        <v>204869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>497</v>
+        <v>422</v>
       </c>
       <c r="N11" s="7">
-        <v>529576</v>
+        <v>456592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="D12" s="7">
-        <v>408340</v>
+        <v>361658</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4363,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I12" s="7">
-        <v>273771</v>
+        <v>269616</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>589</v>
       </c>
       <c r="N12" s="7">
-        <v>682111</v>
+        <v>631274</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4401,49 +3909,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N13" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,49 +3960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>251723</v>
+        <v>310835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>204869</v>
+        <v>256261</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>422</v>
+        <v>550</v>
       </c>
       <c r="N14" s="7">
-        <v>456592</v>
+        <v>567096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,10 +4011,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D15" s="7">
-        <v>361658</v>
+        <v>399245</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4518,10 +4026,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="I15" s="7">
-        <v>269616</v>
+        <v>322344</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4041,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>589</v>
+        <v>695</v>
       </c>
       <c r="N15" s="7">
-        <v>631274</v>
+        <v>721589</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4550,55 +4058,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D16" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I16" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N16" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4115,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>307</v>
+        <v>990</v>
       </c>
       <c r="D17" s="7">
-        <v>310835</v>
+        <v>1060336</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>243</v>
+        <v>801</v>
       </c>
       <c r="I17" s="7">
-        <v>256261</v>
+        <v>815756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>550</v>
+        <v>1791</v>
       </c>
       <c r="N17" s="7">
-        <v>567096</v>
+        <v>1876092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,10 +4166,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>391</v>
+        <v>1312</v>
       </c>
       <c r="D18" s="7">
-        <v>399245</v>
+        <v>1410337</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4673,10 +4181,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>304</v>
+        <v>1008</v>
       </c>
       <c r="I18" s="7">
-        <v>322344</v>
+        <v>1032054</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4196,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>695</v>
+        <v>2320</v>
       </c>
       <c r="N18" s="7">
-        <v>721589</v>
+        <v>2442391</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4704,171 +4212,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>322</v>
-      </c>
-      <c r="D19" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H19" s="7">
-        <v>207</v>
-      </c>
-      <c r="I19" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M19" s="7">
-        <v>529</v>
-      </c>
-      <c r="N19" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>990</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1060336</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="7">
-        <v>801</v>
-      </c>
-      <c r="I20" s="7">
-        <v>815756</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1791</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1876092</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1312</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1410337</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1008</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1032054</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2320</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2442391</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4881,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF025DEA-EDBA-4AAE-8EDF-39D3CC4BD9C7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73588261-40CC-480C-9DF0-C7384F2564EF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4898,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4999,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N4" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="D5" s="7">
-        <v>37826</v>
+        <v>261021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="I5" s="7">
-        <v>33447</v>
+        <v>203216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="N5" s="7">
-        <v>71275</v>
+        <v>464236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="D6" s="7">
-        <v>52039</v>
+        <v>332236</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5116,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="I6" s="7">
-        <v>44738</v>
+        <v>257897</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5131,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>121</v>
+        <v>749</v>
       </c>
       <c r="N6" s="7">
-        <v>96778</v>
+        <v>590133</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5154,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D7" s="7">
-        <v>60313</v>
+        <v>111983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I7" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N7" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="D8" s="7">
-        <v>230239</v>
+        <v>689241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
-        <v>269</v>
+        <v>441</v>
       </c>
       <c r="I8" s="7">
-        <v>181788</v>
+        <v>295887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
-        <v>499</v>
+        <v>857</v>
       </c>
       <c r="N8" s="7">
-        <v>412028</v>
+        <v>985129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>286</v>
+        <v>527</v>
       </c>
       <c r="D9" s="7">
-        <v>290552</v>
+        <v>801224</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5271,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="I9" s="7">
-        <v>229782</v>
+        <v>394617</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5286,10 +4638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>628</v>
+        <v>1114</v>
       </c>
       <c r="N9" s="7">
-        <v>520334</v>
+        <v>1195841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5309,49 +4661,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
+        <v>88</v>
+      </c>
+      <c r="I10" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M10" s="7">
         <v>146</v>
       </c>
-      <c r="I10" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M10" s="7">
-        <v>257</v>
-      </c>
       <c r="N10" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>416</v>
+        <v>260</v>
       </c>
       <c r="D11" s="7">
-        <v>512052</v>
+        <v>281983</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
-        <v>441</v>
+        <v>326</v>
       </c>
       <c r="I11" s="7">
-        <v>326755</v>
+        <v>218410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
-        <v>857</v>
+        <v>586</v>
       </c>
       <c r="N11" s="7">
-        <v>838807</v>
+        <v>500394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>527</v>
+        <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>628502</v>
+        <v>337260</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5426,10 +4778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>587</v>
+        <v>414</v>
       </c>
       <c r="I12" s="7">
-        <v>435987</v>
+        <v>315318</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5441,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1114</v>
+        <v>732</v>
       </c>
       <c r="N12" s="7">
-        <v>1064489</v>
+        <v>652578</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5464,49 +4816,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7">
+        <v>101030</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="7">
+        <v>150</v>
+      </c>
+      <c r="I13" s="7">
+        <v>103896</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M13" s="7">
+        <v>251</v>
+      </c>
+      <c r="N13" s="7">
+        <v>204926</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="7">
-        <v>58037</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H13" s="7">
-        <v>88</v>
-      </c>
-      <c r="I13" s="7">
-        <v>79778</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M13" s="7">
-        <v>146</v>
-      </c>
-      <c r="N13" s="7">
-        <v>137816</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="D14" s="7">
-        <v>290246</v>
+        <v>369178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="I14" s="7">
-        <v>235662</v>
+        <v>373608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>586</v>
+        <v>826</v>
       </c>
       <c r="N14" s="7">
-        <v>525908</v>
+        <v>742786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,10 +4918,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>318</v>
+        <v>477</v>
       </c>
       <c r="D15" s="7">
-        <v>348283</v>
+        <v>470208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5581,10 +4933,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>414</v>
+        <v>600</v>
       </c>
       <c r="I15" s="7">
-        <v>315440</v>
+        <v>477504</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5596,10 +4948,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>1077</v>
       </c>
       <c r="N15" s="7">
-        <v>663724</v>
+        <v>947712</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5613,55 +4965,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D16" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="7">
+        <v>474</v>
+      </c>
+      <c r="I16" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>812</v>
+      </c>
+      <c r="N16" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H16" s="7">
-        <v>150</v>
-      </c>
-      <c r="I16" s="7">
-        <v>112916</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" s="7">
-        <v>251</v>
-      </c>
-      <c r="N16" s="7">
-        <v>216921</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,49 +5022,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>376</v>
+        <v>1321</v>
       </c>
       <c r="D17" s="7">
-        <v>388883</v>
+        <v>1601423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1539</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1091121</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2860</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2692544</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="H17" s="7">
-        <v>450</v>
-      </c>
-      <c r="I17" s="7">
-        <v>345415</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M17" s="7">
-        <v>826</v>
-      </c>
-      <c r="N17" s="7">
-        <v>734299</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>477</v>
+        <v>1659</v>
       </c>
       <c r="D18" s="7">
-        <v>492889</v>
+        <v>1940928</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5736,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>600</v>
+        <v>2013</v>
       </c>
       <c r="I18" s="7">
-        <v>458331</v>
+        <v>1445336</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5751,10 +5103,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1077</v>
+        <v>3672</v>
       </c>
       <c r="N18" s="7">
-        <v>951220</v>
+        <v>3386264</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5767,171 +5119,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>338</v>
-      </c>
-      <c r="D19" s="7">
-        <v>353017</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="7">
-        <v>474</v>
-      </c>
-      <c r="I19" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="M19" s="7">
-        <v>812</v>
-      </c>
-      <c r="N19" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1321</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1459248</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1539</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1123068</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2860</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2582316</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1659</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1812265</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2013</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1484279</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3672</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3296544</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
